--- a/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_DAIKIN AMERICA INC..xlsx
+++ b/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_DAIKIN AMERICA INC..xlsx
@@ -599,22 +599,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>34</v>
       </c>
       <c r="D9" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F9" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -622,10 +622,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="D10" t="n">
         <v>0.67</v>
@@ -634,10 +634,10 @@
         <v>0.53</v>
       </c>
       <c r="F10" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="G10" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -843,22 +843,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8.3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07</v>
+        <v>0.065</v>
       </c>
       <c r="D10" t="n">
         <v>0.14</v>
@@ -878,10 +878,10 @@
         <v>0.095</v>
       </c>
       <c r="F10" t="n">
-        <v>0.067</v>
+        <v>0.072</v>
       </c>
       <c r="G10" t="n">
-        <v>0.066</v>
+        <v>0.068</v>
       </c>
     </row>
   </sheetData>
